--- a/Banalyzer/CSV/example.xlsx
+++ b/Banalyzer/CSV/example.xlsx
@@ -8,22 +8,83 @@
   </bookViews>
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="123456789 bsl" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Study Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Reader ID</t>
+  </si>
+  <si>
+    <t>Date Scanned</t>
+  </si>
+  <si>
+    <t>Date Analyzed</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Image File</t>
+  </si>
+  <si>
+    <t>Image Frames</t>
+  </si>
+  <si>
+    <t>Length(sec.)</t>
+  </si>
+  <si>
+    <t>DIAMETER</t>
+  </si>
+  <si>
+    <t>Average Diameter</t>
+  </si>
+  <si>
+    <t>Minimum Diameter</t>
+  </si>
+  <si>
+    <t>Maximum Diameter</t>
+  </si>
+  <si>
+    <t>Diameter Max (3-sec-smoothed)</t>
+  </si>
+  <si>
+    <t>Diameter Max (5-sec-smoothed)</t>
+  </si>
+  <si>
+    <t>Diameter Max (10-sec-smoothed)</t>
+  </si>
+  <si>
+    <t>Flow Velocity Avg (meter/sec)</t>
+  </si>
+  <si>
+    <t>Flow Velocity Max (meter/sec)</t>
+  </si>
+  <si>
+    <t>Flow velocity integral avg (meters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,13 +92,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,8 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,18 +427,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="81" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="50" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>